--- a/data/trans_orig/P14B35_2012-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B35_2012-Estudios-trans_orig.xlsx
@@ -710,12 +710,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>50,18%</t>
+          <t>49,28%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -731,12 +731,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>50,18%</t>
+          <t>49,28%</t>
         </is>
       </c>
     </row>
@@ -779,12 +779,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>49,82%</t>
+          <t>50,72%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>93,45%</t>
+          <t>93,41%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -800,12 +800,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>49,82%</t>
+          <t>50,72%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>93,45%</t>
+          <t>93,41%</t>
         </is>
       </c>
     </row>
@@ -921,12 +921,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>27,62%</t>
+          <t>27,54%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>47,55%</t>
+          <t>47,83%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -942,12 +942,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>27,62%</t>
+          <t>27,54%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>47,55%</t>
+          <t>47,83%</t>
         </is>
       </c>
     </row>
@@ -990,12 +990,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>52,45%</t>
+          <t>52,17%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>72,38%</t>
+          <t>72,46%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1011,12 +1011,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>52,45%</t>
+          <t>52,17%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>72,38%</t>
+          <t>72,46%</t>
         </is>
       </c>
     </row>
@@ -1132,12 +1132,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>39,49%</t>
+          <t>41,38%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1153,12 +1153,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>39,49%</t>
+          <t>41,38%</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1201,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>60,51%</t>
+          <t>58,62%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>93,22%</t>
+          <t>92,99%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1222,12 +1222,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>60,51%</t>
+          <t>58,62%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>93,22%</t>
+          <t>92,99%</t>
         </is>
       </c>
     </row>
@@ -1343,12 +1343,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>24,25%</t>
+          <t>24,02%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>40,72%</t>
+          <t>39,92%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1364,12 +1364,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>24,25%</t>
+          <t>24,02%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>40,72%</t>
+          <t>39,92%</t>
         </is>
       </c>
     </row>
@@ -1412,12 +1412,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>59,28%</t>
+          <t>60,08%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>75,75%</t>
+          <t>75,98%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1433,12 +1433,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>59,28%</t>
+          <t>60,08%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>75,75%</t>
+          <t>75,98%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P14B35_2012-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B35_2012-Estudios-trans_orig.xlsx
@@ -710,7 +710,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -784,7 +784,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>93,41%</t>
+          <t>93,44%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -805,7 +805,7 @@
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>93,41%</t>
+          <t>93,44%</t>
         </is>
       </c>
     </row>
@@ -921,12 +921,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>27,54%</t>
+          <t>27,33%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>47,83%</t>
+          <t>47,97%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -942,12 +942,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>27,54%</t>
+          <t>27,33%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>47,83%</t>
+          <t>47,97%</t>
         </is>
       </c>
     </row>
@@ -990,12 +990,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>52,17%</t>
+          <t>52,03%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>72,46%</t>
+          <t>72,67%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1011,12 +1011,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>52,17%</t>
+          <t>52,03%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>72,46%</t>
+          <t>72,67%</t>
         </is>
       </c>
     </row>
@@ -1132,12 +1132,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>41,38%</t>
+          <t>40,81%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1153,12 +1153,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>41,38%</t>
+          <t>40,81%</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1201,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>58,62%</t>
+          <t>59,19%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>92,99%</t>
+          <t>90,88%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1222,12 +1222,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>58,62%</t>
+          <t>59,19%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>92,99%</t>
+          <t>90,88%</t>
         </is>
       </c>
     </row>
@@ -1343,12 +1343,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>24,02%</t>
+          <t>24,89%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>39,92%</t>
+          <t>40,69%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1364,12 +1364,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>24,02%</t>
+          <t>24,89%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>39,92%</t>
+          <t>40,69%</t>
         </is>
       </c>
     </row>
@@ -1412,12 +1412,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>60,08%</t>
+          <t>59,31%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>75,98%</t>
+          <t>75,11%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1433,12 +1433,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>60,08%</t>
+          <t>59,31%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>75,98%</t>
+          <t>75,11%</t>
         </is>
       </c>
     </row>
